--- a/data/trans_camb/P1801_2016_2023-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1801_2016_2023-Dificultad-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-3.107566264799538</v>
+        <v>-3.10756626479955</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>-2.784442358507044</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-2.577921413669642</v>
+        <v>-2.577921413669654</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.95316788918284</v>
+        <v>-9.135847666592738</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.707215557357419</v>
+        <v>-7.185533608931218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.989800069011774</v>
+        <v>-6.523986339058895</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.275267083936569</v>
+        <v>2.122911798789703</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.746126855446035</v>
+        <v>1.848178297283396</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.280706865696398</v>
+        <v>0.7418147750862537</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.07007881830648702</v>
+        <v>-0.07007881830648727</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>-0.04872427952306185</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.05045039279282838</v>
+        <v>-0.0504503927928286</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1956796385239281</v>
+        <v>-0.1952097885673601</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1306858368144345</v>
+        <v>-0.123062556488864</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1150658971842927</v>
+        <v>-0.1233041059977413</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.0548759319844204</v>
+        <v>0.05042438511212376</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.03149980154435131</v>
+        <v>0.0331736949725082</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02576606680892871</v>
+        <v>0.01457697064890358</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-6.207833222953518</v>
+        <v>-6.207833222953524</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>-6.570334393426169</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-6.28518673198431</v>
+        <v>-6.285186731984316</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.25860023211583</v>
+        <v>-11.14965432541213</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.05010650044307</v>
+        <v>-10.13775202995917</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.403729753321706</v>
+        <v>-9.613785829508167</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.169143010135587</v>
+        <v>-1.406013002512103</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.790855219470939</v>
+        <v>-2.351832472481029</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.329140125937675</v>
+        <v>-3.188389239877012</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.1323234792960686</v>
+        <v>-0.1323234792960687</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>-0.1149340319486203</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1201723196302214</v>
+        <v>-0.1201723196302215</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2282698651710094</v>
+        <v>-0.2289958667230942</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1841799696119925</v>
+        <v>-0.1722187416517329</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1750490082854012</v>
+        <v>-0.1776931224633419</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.02738268668995087</v>
+        <v>-0.03256734725564791</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.05043383443073162</v>
+        <v>-0.04263004021677069</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.06673521389703518</v>
+        <v>-0.06269078694518118</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>-5.038338763792449</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.938487509127718</v>
+        <v>-1.938487509127729</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.174232730784275</v>
+        <v>-3.724446993239995</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.510762461220139</v>
+        <v>-9.593186241478154</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.012361500831241</v>
+        <v>-5.189989638458465</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.764690703534709</v>
+        <v>6.119536192060945</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.7401198294276345</v>
+        <v>-0.6255400550838522</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.451111938048663</v>
+        <v>1.427225093916092</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>-0.08151983402430241</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.03494746091405995</v>
+        <v>-0.03494746091406015</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.0793076627408222</v>
+        <v>-0.07154075995153045</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1458155667762916</v>
+        <v>-0.1478754458946986</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.08783614597298879</v>
+        <v>-0.09033849375036208</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1228652949338168</v>
+        <v>0.130656490083408</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.01153632723132514</v>
+        <v>-0.01106176710623238</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.02757387868418201</v>
+        <v>0.02621108304714406</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>11.8025277348219</v>
+        <v>11.80252773482189</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>12.80130836594844</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.088803862658213</v>
+        <v>6.026843194994881</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.227451810975973</v>
+        <v>7.226890517665481</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.264354566188993</v>
+        <v>8.312477734235799</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.47840108498505</v>
+        <v>17.57717088867699</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.9597649651735</v>
+        <v>17.70744672139093</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.41406429420653</v>
+        <v>16.18851273029158</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.2619943728860761</v>
+        <v>0.2619943728860759</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>0.2588478126129072</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1274596734675988</v>
+        <v>0.1249383493044955</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1356767639676166</v>
+        <v>0.1368713828568793</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1676994202608985</v>
+        <v>0.1685351980986821</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4241578920019907</v>
+        <v>0.4310049251050359</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3937215046876313</v>
+        <v>0.3884147473807495</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3677121006293418</v>
+        <v>0.3648138806787086</v>
       </c>
     </row>
     <row r="28">
@@ -994,7 +994,7 @@
         <v>-1.250205259120407</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.250713684454662</v>
+        <v>0.2507136844546842</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.8491592452791491</v>
+        <v>-0.9503811619079897</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.598310730507322</v>
+        <v>-3.445942785520935</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.447943156250726</v>
+        <v>-1.421085164559864</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.271895441891662</v>
+        <v>4.464539831565411</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9950448577028386</v>
+        <v>1.259114843278766</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.175225768382376</v>
+        <v>1.894926432826019</v>
       </c>
     </row>
     <row r="31">
@@ -1045,7 +1045,7 @@
         <v>-0.02189394958949405</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.004832369686312415</v>
+        <v>0.004832369686312843</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01774499223120896</v>
+        <v>-0.0204484000927961</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.06257037737262607</v>
+        <v>-0.05904318830830233</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.02744817055774108</v>
+        <v>-0.026834599890878</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.09432670927040034</v>
+        <v>0.09747873467274161</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.01778753591029582</v>
+        <v>0.02254805488517828</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.04284842528308498</v>
+        <v>0.03709736540505135</v>
       </c>
     </row>
     <row r="34">
